--- a/full_result.xlsx
+++ b/full_result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BE25"/>
+  <dimension ref="A1:BP25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -719,6 +719,61 @@
           <t>2023-01-18</t>
         </is>
       </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>2023-01-19</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>2023-01-20</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>2023-01-21</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>2023-01-22</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>2023-01-24</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>2023-01-25</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>2023-01-26</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>2023-01-28</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>2023-01-29</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -896,6 +951,39 @@
       <c r="BE2" t="n">
         <v>200</v>
       </c>
+      <c r="BF2" t="n">
+        <v>200</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>200</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>200</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>200</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>200</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>200</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>200</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>200</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>200</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>200</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1073,6 +1161,39 @@
       <c r="BE3" t="n">
         <v>170</v>
       </c>
+      <c r="BF3" t="n">
+        <v>170</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>170</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>170</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>170</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>170</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>170</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>170</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>170</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>170</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>170</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>170</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1250,6 +1371,39 @@
       <c r="BE4" t="n">
         <v>250</v>
       </c>
+      <c r="BF4" t="n">
+        <v>250</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>250</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>250</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>250</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>250</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>250</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>250</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>250</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>250</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>250</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>250</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1427,6 +1581,39 @@
       <c r="BE5" t="n">
         <v>180</v>
       </c>
+      <c r="BF5" t="n">
+        <v>180</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>180</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>180</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>180</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>180</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>180</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>180</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>180</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>180</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>180</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>180</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1604,6 +1791,39 @@
       <c r="BE6" t="n">
         <v>170</v>
       </c>
+      <c r="BF6" t="n">
+        <v>170</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>170</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>170</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>170</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>170</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>170</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>170</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>170</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>170</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>170</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>170</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1781,6 +2001,39 @@
       <c r="BE7" t="n">
         <v>210</v>
       </c>
+      <c r="BF7" t="n">
+        <v>210</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>210</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>210</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>210</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>210</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>210</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>210</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>210</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>210</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>210</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>210</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1958,6 +2211,39 @@
       <c r="BE8" t="n">
         <v>170</v>
       </c>
+      <c r="BF8" t="n">
+        <v>170</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>170</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>170</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>170</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>170</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>170</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>170</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>170</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>170</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>170</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>170</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2135,6 +2421,39 @@
       <c r="BE9" t="n">
         <v>240</v>
       </c>
+      <c r="BF9" t="n">
+        <v>240</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>240</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>240</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>240</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>240</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>240</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>240</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>240</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>240</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>240</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>240</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2312,6 +2631,39 @@
       <c r="BE10" t="n">
         <v>210</v>
       </c>
+      <c r="BF10" t="n">
+        <v>210</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>210</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>210</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>210</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>210</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>210</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>210</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>210</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>210</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>210</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>210</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2489,6 +2841,39 @@
       <c r="BE11" t="n">
         <v>240</v>
       </c>
+      <c r="BF11" t="n">
+        <v>240</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>240</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>240</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>240</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>240</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>240</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>240</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>240</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>240</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>240</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>240</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2666,6 +3051,39 @@
       <c r="BE12" t="n">
         <v>210</v>
       </c>
+      <c r="BF12" t="n">
+        <v>210</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>210</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>210</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>210</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>210</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>210</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>210</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>210</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>210</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>210</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>210</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2843,6 +3261,39 @@
       <c r="BE13" t="n">
         <v>200</v>
       </c>
+      <c r="BF13" t="n">
+        <v>200</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>200</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>200</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>200</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>200</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>200</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>200</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>200</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>200</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>200</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3020,6 +3471,39 @@
       <c r="BE14" t="n">
         <v>160</v>
       </c>
+      <c r="BF14" t="n">
+        <v>160</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>160</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>160</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>160</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>160</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>160</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>160</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>160</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>160</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>160</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>160</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3197,6 +3681,39 @@
       <c r="BE15" t="n">
         <v>140</v>
       </c>
+      <c r="BF15" t="n">
+        <v>140</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>140</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>140</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>140</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>140</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>140</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>140</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>140</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>140</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>140</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3374,6 +3891,39 @@
       <c r="BE16" t="n">
         <v>220</v>
       </c>
+      <c r="BF16" t="n">
+        <v>220</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>220</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>220</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>220</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>220</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>220</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>220</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>220</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>220</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>220</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>220</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3551,6 +4101,39 @@
       <c r="BE17" t="n">
         <v>175</v>
       </c>
+      <c r="BF17" t="n">
+        <v>175</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>175</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>175</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>175</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>175</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>175</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>175</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>175</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>175</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>175</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>175</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3728,6 +4311,39 @@
       <c r="BE18" t="n">
         <v>265</v>
       </c>
+      <c r="BF18" t="n">
+        <v>265</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>265</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>265</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>265</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>265</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>265</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>265</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>265</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>265</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>265</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>265</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3905,6 +4521,39 @@
       <c r="BE19" t="n">
         <v>245</v>
       </c>
+      <c r="BF19" t="n">
+        <v>245</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>245</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>245</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>245</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>245</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>245</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>245</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>245</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>245</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>245</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>245</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4082,6 +4731,39 @@
       <c r="BE20" t="n">
         <v>249</v>
       </c>
+      <c r="BF20" t="n">
+        <v>249</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>249</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>249</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>249</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>249</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>249</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>249</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>249</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>249</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>249</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>249</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4259,6 +4941,39 @@
       <c r="BE21" t="n">
         <v>209</v>
       </c>
+      <c r="BF21" t="n">
+        <v>209</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>209</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>209</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>209</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>209</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>209</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>209</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>209</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>209</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>209</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>209</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4436,6 +5151,39 @@
       <c r="BE22" t="n">
         <v>255</v>
       </c>
+      <c r="BF22" t="n">
+        <v>255</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>255</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>255</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>255</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>255</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>255</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>255</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>255</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>255</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>255</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>255</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4613,6 +5361,39 @@
       <c r="BE23" t="n">
         <v>255</v>
       </c>
+      <c r="BF23" t="n">
+        <v>255</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>255</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>255</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>255</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>255</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>255</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>255</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>255</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>255</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>255</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>255</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4790,6 +5571,39 @@
       <c r="BE24" t="n">
         <v>285</v>
       </c>
+      <c r="BF24" t="n">
+        <v>285</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>285</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>285</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>285</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>285</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>285</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>285</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>285</v>
+      </c>
+      <c r="BN24" t="n">
+        <v>285</v>
+      </c>
+      <c r="BO24" t="n">
+        <v>285</v>
+      </c>
+      <c r="BP24" t="n">
+        <v>285</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4965,6 +5779,39 @@
         <v>228</v>
       </c>
       <c r="BE25" t="n">
+        <v>228</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>228</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>228</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>228</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>228</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>228</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>228</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>228</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>228</v>
+      </c>
+      <c r="BN25" t="n">
+        <v>228</v>
+      </c>
+      <c r="BO25" t="n">
+        <v>228</v>
+      </c>
+      <c r="BP25" t="n">
         <v>228</v>
       </c>
     </row>
